--- a/Project_python/out/matrix_classification_abstract_kw_intro_body.xlsx
+++ b/Project_python/out/matrix_classification_abstract_kw_intro_body.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.05265076771177998]</t>
+          <t>[0.1021986878818175]</t>
         </is>
       </c>
       <c r="F2" t="b">
@@ -517,7 +517,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.0697166435278438]</t>
+          <t>[0.0724813088297462]</t>
         </is>
       </c>
       <c r="F3" t="b">
@@ -538,7 +538,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[6, 12]</t>
+          <t>[6, 5]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.04147961995587702, 0.017459154814463734]</t>
+          <t>[0.04387232459615457, 0.017763282781836122]</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -579,7 +579,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.07959113308644357]</t>
+          <t>[0.11004423867894603]</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -600,24 +600,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>[2]</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[2]</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.033715720014631086]</t>
+          <t>[0.050195759812701156]</t>
         </is>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.04392031262762856]</t>
+          <t>[0.040757744399595335]</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -672,7 +672,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.059826415157789165]</t>
+          <t>[0.06155000622155496]</t>
         </is>
       </c>
       <c r="F8" t="b">
@@ -703,7 +703,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.03130361947251974]</t>
+          <t>[0.12956794081898093]</t>
         </is>
       </c>
       <c r="F9" t="b">
@@ -724,7 +724,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.02027390095903556]</t>
+          <t>[0.04719571644335393]</t>
         </is>
       </c>
       <c r="F10" t="b">
@@ -765,7 +765,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.08582098964733462]</t>
+          <t>[0.08734432853731185]</t>
         </is>
       </c>
       <c r="F11" t="b">
@@ -796,7 +796,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.03144987755685713]</t>
+          <t>[0.03026679866594358]</t>
         </is>
       </c>
       <c r="F12" t="b">
@@ -827,7 +827,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.19439096689410162]</t>
+          <t>[0.19738295527125357]</t>
         </is>
       </c>
       <c r="F13" t="b">
@@ -858,7 +858,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.053073035698256395]</t>
+          <t>[0.059255480055265784]</t>
         </is>
       </c>
       <c r="F14" t="b">
@@ -889,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0.013647533910744645, 0.012260707092635275]</t>
+          <t>[0.015624083358867861, 0.012609221338266845]</t>
         </is>
       </c>
       <c r="F15" t="b">
@@ -920,7 +920,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.09222010538737671]</t>
+          <t>[0.09912915381473113]</t>
         </is>
       </c>
       <c r="F16" t="b">
@@ -951,7 +951,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.06719531354004538]</t>
+          <t>[0.059925011650538026]</t>
         </is>
       </c>
       <c r="F17" t="b">
@@ -972,7 +972,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[7]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.060135142535114795]</t>
+          <t>[0.02612965052728456]</t>
         </is>
       </c>
       <c r="F18" t="b">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0.04701434438657654]</t>
+          <t>[0.04345321337212932]</t>
         </is>
       </c>
       <c r="F19" t="b">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[9, 17]</t>
+          <t>[17, 9]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.03401443975729557, 0.029412006014212462]</t>
+          <t>[0.058514358293634626, 0.03325686128485326]</t>
         </is>
       </c>
       <c r="F20" t="b">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.022310791579423905]</t>
+          <t>[0.02629451636828707]</t>
         </is>
       </c>
       <c r="F21" t="b">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[0.02996011975384229]</t>
+          <t>[0.030247897695607373]</t>
         </is>
       </c>
       <c r="F22" t="b">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.02883276961284583]</t>
+          <t>[0.03451511550403321]</t>
         </is>
       </c>
       <c r="F23" t="b">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[0.046106795879435745]</t>
+          <t>[0.08976878657688107]</t>
         </is>
       </c>
       <c r="F24" t="b">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[0.027409893610680833]</t>
+          <t>[0.028802063991541647]</t>
         </is>
       </c>
       <c r="F25" t="b">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[12, 9]</t>
+          <t>[12, 6]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[0.06175374546076469, 0.03375916580126371]</t>
+          <t>[0.06543628434942157, 0.033091884071085334]</t>
         </is>
       </c>
       <c r="F26" t="b">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[0.037908657705142616, 0.025675569052573687]</t>
+          <t>[0.038961212964002026, 0.026525752498229287]</t>
         </is>
       </c>
       <c r="F27" t="b">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[0.07864848845843703]</t>
+          <t>[0.0853390180127976]</t>
         </is>
       </c>
       <c r="F28" t="b">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[0.09751212918750787]</t>
+          <t>[0.10626866341331564]</t>
         </is>
       </c>
       <c r="F29" t="b">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[0.013493850138606673]</t>
+          <t>[0.01382921210475426]</t>
         </is>
       </c>
       <c r="F30" t="b">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[4, 12]</t>
+          <t>[4, 17]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[0.031890006697364116, 0.022374318557002906]</t>
+          <t>[0.028689947442317103, 0.02386378789929742]</t>
         </is>
       </c>
       <c r="F31" t="b">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[0.04551602616220794]</t>
+          <t>[0.04084457443409868]</t>
         </is>
       </c>
       <c r="F32" t="b">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[0.04841923330818933]</t>
+          <t>[0.05139255542758207]</t>
         </is>
       </c>
       <c r="F33" t="b">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[0.09093303739692425]</t>
+          <t>[0.09806837669467196]</t>
         </is>
       </c>
       <c r="F34" t="b">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[0.07866519001523911]</t>
+          <t>[0.08465775626104707]</t>
         </is>
       </c>
       <c r="F35" t="b">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[0.03854473661702785]</t>
+          <t>[0.04428910346946312]</t>
         </is>
       </c>
       <c r="F36" t="b">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[0.0541239752583486]</t>
+          <t>[0.057577020206154454]</t>
         </is>
       </c>
       <c r="F37" t="b">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[0.03167552961319297]</t>
+          <t>[0.03505157603942323]</t>
         </is>
       </c>
       <c r="F38" t="b">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[0.02154325959412225]</t>
+          <t>[0.033484506461651756]</t>
         </is>
       </c>
       <c r="F39" t="b">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[0.03305294288643341]</t>
+          <t>[0.029624420492400418]</t>
         </is>
       </c>
       <c r="F40" t="b">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>[3]</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>[3]</t>
-        </is>
-      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[0.0314975564048651]</t>
+          <t>[0.042912333009492466]</t>
         </is>
       </c>
       <c r="F41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[0.0808341302640055]</t>
+          <t>[0.0880676889421225]</t>
         </is>
       </c>
       <c r="F42" t="b">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[0.052273818779208545]</t>
+          <t>[0.057194112283367654]</t>
         </is>
       </c>
       <c r="F43" t="b">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[0.07480125717466503]</t>
+          <t>[0.08327597320631508]</t>
         </is>
       </c>
       <c r="F44" t="b">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[0.030941098526051546]</t>
+          <t>[0.03209699764105295]</t>
         </is>
       </c>
       <c r="F45" t="b">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[16, 5]</t>
+          <t>[16, 13]</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[0.03317152709353013, 0.024388463513867236]</t>
+          <t>[0.0378560573426572, 0.02640500772323769]</t>
         </is>
       </c>
       <c r="F46" t="b">
@@ -1871,24 +1871,24 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>[3]</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>[3]</t>
-        </is>
-      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[0.057497888815816356]</t>
+          <t>[0.06503842816235114]</t>
         </is>
       </c>
       <c r="F47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[0.022530626060133042, 0.021863937137565997]</t>
+          <t>[0.02446873754315493, 0.022741964576364952]</t>
         </is>
       </c>
       <c r="F48" t="b">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[0.032687166177002104]</t>
+          <t>[0.036193777020443456]</t>
         </is>
       </c>
       <c r="F49" t="b">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.07237868169597025]</t>
+          <t>[0.0630345859004114]</t>
         </is>
       </c>
       <c r="F50" t="b">
@@ -1995,24 +1995,24 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>[4]</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>[4]</t>
-        </is>
-      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.07175186398889107]</t>
+          <t>[0.07128339518008522]</t>
         </is>
       </c>
       <c r="F51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.13443412405944924]</t>
+          <t>[0.11949071166524816]</t>
         </is>
       </c>
       <c r="F52" t="b">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[0.06678074113156783]</t>
+          <t>[0.059576046709021876]</t>
         </is>
       </c>
       <c r="F53" t="b">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[0.08115901886223485]</t>
+          <t>[0.07112812792584465]</t>
         </is>
       </c>
       <c r="F54" t="b">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[0.0833399973753642]</t>
+          <t>[0.07417308280275771]</t>
         </is>
       </c>
       <c r="F55" t="b">
@@ -2150,24 +2150,24 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>[4]</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>[4]</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[0.035036025685295104]</t>
+          <t>[0.03674615463962359]</t>
         </is>
       </c>
       <c r="F56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.07598050578946064]</t>
+          <t>[0.13114136307290195]</t>
         </is>
       </c>
       <c r="F57" t="b">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[0.05569975315607995]</t>
+          <t>[0.04917537564752616]</t>
         </is>
       </c>
       <c r="F58" t="b">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[0.03060181946695887]</t>
+          <t>[0.03367020843725405]</t>
         </is>
       </c>
       <c r="F59" t="b">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[0.031785417936625135]</t>
+          <t>[0.028398005473259765]</t>
         </is>
       </c>
       <c r="F60" t="b">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[0.17784322038203698]</t>
+          <t>[0.19296458661348642]</t>
         </is>
       </c>
       <c r="F61" t="b">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[0.0986620010067927]</t>
+          <t>[0.10644125052879319]</t>
         </is>
       </c>
       <c r="F62" t="b">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[0.06149743824707889]</t>
+          <t>[0.06505557719225737]</t>
         </is>
       </c>
       <c r="F63" t="b">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[0.047752853124577666]</t>
+          <t>[0.0507363519553238]</t>
         </is>
       </c>
       <c r="F64" t="b">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[0.09029850453583607]</t>
+          <t>[0.09599340610636779]</t>
         </is>
       </c>
       <c r="F65" t="b">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[0.08224155963761656]</t>
+          <t>[0.14425580314448397]</t>
         </is>
       </c>
       <c r="F66" t="b">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[0.04757437036961448]</t>
+          <t>[0.049365336672051376]</t>
         </is>
       </c>
       <c r="F67" t="b">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[0.07778008385412301]</t>
+          <t>[0.07351323123342929]</t>
         </is>
       </c>
       <c r="F68" t="b">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[0.044288885921353195]</t>
+          <t>[0.046859894780775825]</t>
         </is>
       </c>
       <c r="F69" t="b">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[0.05475495986284627]</t>
+          <t>[0.05200709020681355]</t>
         </is>
       </c>
       <c r="F70" t="b">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[0.07512712229255526]</t>
+          <t>[0.07835604576319746]</t>
         </is>
       </c>
       <c r="F71" t="b">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[0.13216639030308658]</t>
+          <t>[0.124736740928558]</t>
         </is>
       </c>
       <c r="F72" t="b">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[15, 11]</t>
+          <t>[15, 13]</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[0.04464147196713733, 0.017091441871959486]</t>
+          <t>[0.043241097031713145, 0.029998681644358996]</t>
         </is>
       </c>
       <c r="F73" t="b">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[0.08826474015422162]</t>
+          <t>[0.0915079823558615]</t>
         </is>
       </c>
       <c r="F74" t="b">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[0.02944790240407197]</t>
+          <t>[0.05427722511387316]</t>
         </is>
       </c>
       <c r="F75" t="b">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[0.13552199909609774]</t>
+          <t>[0.0573818034170352]</t>
         </is>
       </c>
       <c r="F76" t="b">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[0.1391832579006657]</t>
+          <t>[0.1013705225862989]</t>
         </is>
       </c>
       <c r="F77" t="b">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[0.12315575787826354]</t>
+          <t>[0.08981389494962357]</t>
         </is>
       </c>
       <c r="F78" t="b">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[0.08709363299735383, 0.02285982823103391]</t>
+          <t>[0.06312753244217639, 0.024477966949039205]</t>
         </is>
       </c>
       <c r="F79" t="b">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[0.054294380567480344]</t>
+          <t>[0.09875972523858273]</t>
         </is>
       </c>
       <c r="F80" t="b">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[0.16174714748802063]</t>
+          <t>[0.113493192567594]</t>
         </is>
       </c>
       <c r="F81" t="b">
@@ -2956,21 +2956,21 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>[8, 17]</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>[8, 9]</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>[8, 9]</t>
-        </is>
-      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[0.10303384213809247, 0.029055334939231757]</t>
+          <t>[0.07612517646894403, 0.04781736924349092]</t>
         </is>
       </c>
       <c r="F82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[0.06021212267497856]</t>
+          <t>[0.11988747986954006]</t>
         </is>
       </c>
       <c r="F83" t="b">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[0.04682764201296366]</t>
+          <t>[0.037049382297216736]</t>
         </is>
       </c>
       <c r="F84" t="b">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[0.036868165278889684]</t>
+          <t>[0.03824315693803965]</t>
         </is>
       </c>
       <c r="F85" t="b">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[7]</t>
+          <t>[8]</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[0.0738280560466973]</t>
+          <t>[0.047293495666634496]</t>
         </is>
       </c>
       <c r="F86" t="b">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[0.09643764322863597, 0.019192833865072725]</t>
+          <t>[0.03996606494662152, 0.017585485922836583]</t>
         </is>
       </c>
       <c r="F87" t="b">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[0.20702453972091864, 0.04617059548638246]</t>
+          <t>[0.2142292537934633, 0.09034370229693238]</t>
         </is>
       </c>
       <c r="F88" t="b">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[0.1799025929592097, 0.06499261052614753]</t>
+          <t>[0.1865271062434799, 0.12208045039751148]</t>
         </is>
       </c>
       <c r="F89" t="b">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[0.04442709534511001, 0.04247374501260867]</t>
+          <t>[0.04770466069048018, 0.04447579427453392]</t>
         </is>
       </c>
       <c r="F90" t="b">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[0.061769809232751716]</t>
+          <t>[0.06369909106552599]</t>
         </is>
       </c>
       <c r="F91" t="b">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[0.035410714239267595]</t>
+          <t>[0.035794319951454635]</t>
         </is>
       </c>
       <c r="F92" t="b">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[0.04694342851193001]</t>
+          <t>[0.04950141519544709]</t>
         </is>
       </c>
       <c r="F93" t="b">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[0.04436918586917753]</t>
+          <t>[0.04668431147917967]</t>
         </is>
       </c>
       <c r="F94" t="b">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[0.02852495916480097]</t>
+          <t>[0.02857122815210186]</t>
         </is>
       </c>
       <c r="F95" t="b">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[0.13796596137401157]</t>
+          <t>[0.1432674321266934]</t>
         </is>
       </c>
       <c r="F96" t="b">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[0.04408343019213531]</t>
+          <t>[0.049338873263933755]</t>
         </is>
       </c>
       <c r="F97" t="b">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[0.07960773090893306]</t>
+          <t>[0.08227404949149063]</t>
         </is>
       </c>
       <c r="F98" t="b">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[0.20736981205884364]</t>
+          <t>[0.2140689904199165]</t>
         </is>
       </c>
       <c r="F99" t="b">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[0.032098030689561276]</t>
+          <t>[0.0631806228786188]</t>
         </is>
       </c>
       <c r="F100" t="b">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[0.03649861084792256]</t>
+          <t>[0.03944209720474984]</t>
         </is>
       </c>
       <c r="F101" t="b">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[0.03986565064536589]</t>
+          <t>[0.037006541951812716]</t>
         </is>
       </c>
       <c r="F102" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[0.06638814577377068]</t>
+          <t>[0.06868205301115866]</t>
         </is>
       </c>
       <c r="F103" t="b">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[0.039235653209666925]</t>
+          <t>[0.03989440078444165]</t>
         </is>
       </c>
       <c r="F104" t="b">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[0.03151026939672209]</t>
+          <t>[0.03292613931531786]</t>
         </is>
       </c>
       <c r="F105" t="b">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[0.13298425452135654]</t>
+          <t>[0.1258825720498258]</t>
         </is>
       </c>
       <c r="F106" t="b">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[0.02599288991519561]</t>
+          <t>[0.024885744722653553]</t>
         </is>
       </c>
       <c r="F107" t="b">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[0.03116628932604721]</t>
+          <t>[0.06003938778120141]</t>
         </is>
       </c>
       <c r="F108" t="b">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[0.039593352425265585]</t>
+          <t>[0.04167658836273425]</t>
         </is>
       </c>
       <c r="F109" t="b">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[0.2645405219685179]</t>
+          <t>[0.24211274418476375]</t>
         </is>
       </c>
       <c r="F110" t="b">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[0.05942999031030636]</t>
+          <t>[0.09862850216249137]</t>
         </is>
       </c>
       <c r="F111" t="b">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3896,14 +3896,14 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[0.02731953642806702]</t>
+          <t>[0.10860733523305714]</t>
         </is>
       </c>
       <c r="F112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[0.060889358293797366]</t>
+          <t>[0.0640431770114204]</t>
         </is>
       </c>
       <c r="F113" t="b">
@@ -3948,24 +3948,24 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>[14]</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>[14]</t>
-        </is>
-      </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[0.0270580202416475]</t>
+          <t>[0.02851371306073538]</t>
         </is>
       </c>
       <c r="F114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[0.04114722138795551]</t>
+          <t>[0.04058469820927633]</t>
         </is>
       </c>
       <c r="F115" t="b">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[0.14262521504977727]</t>
+          <t>[0.13809937140061246]</t>
         </is>
       </c>
       <c r="F116" t="b">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[0.12395584867445582]</t>
+          <t>[0.12044291092663047]</t>
         </is>
       </c>
       <c r="F117" t="b">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[0.10419891900622406]</t>
+          <t>[0.10000606311915047]</t>
         </is>
       </c>
       <c r="F118" t="b">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[0.11236869740913598]</t>
+          <t>[0.11654029237732022]</t>
         </is>
       </c>
       <c r="F119" t="b">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[0.043416758025868966]</t>
+          <t>[0.04267890454697394]</t>
         </is>
       </c>
       <c r="F120" t="b">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[0.06775053139503073]</t>
+          <t>[0.07056729869037341]</t>
         </is>
       </c>
       <c r="F121" t="b">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[0.12446972344415291]</t>
+          <t>[0.11749620913574445]</t>
         </is>
       </c>
       <c r="F122" t="b">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[0.11345415710757456]</t>
+          <t>[0.10847945315463224]</t>
         </is>
       </c>
       <c r="F123" t="b">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[0.07324770622498272]</t>
+          <t>[0.07074726371233618]</t>
         </is>
       </c>
       <c r="F124" t="b">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[0.07073695702764307]</t>
+          <t>[0.06712936582102834]</t>
         </is>
       </c>
       <c r="F125" t="b">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[0.05328200954130435]</t>
+          <t>[0.05135052573455452]</t>
         </is>
       </c>
       <c r="F126" t="b">
@@ -4351,24 +4351,24 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>[9]</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>[15]</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>[15]</t>
-        </is>
-      </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[0.07274674075014072]</t>
+          <t>[0.07144571864437396]</t>
         </is>
       </c>
       <c r="F127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[0.13523975287296455]</t>
+          <t>[0.12730217830618076]</t>
         </is>
       </c>
       <c r="F128" t="b">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[0.19363338219901252]</t>
+          <t>[0.18263386220710914]</t>
         </is>
       </c>
       <c r="F129" t="b">
@@ -4444,24 +4444,24 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>[14]</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>[15]</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>[15]</t>
-        </is>
-      </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[0.044689136959934816]</t>
+          <t>[0.042520765203482205]</t>
         </is>
       </c>
       <c r="F130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -4475,24 +4475,24 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>[15]</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>[15]</t>
-        </is>
-      </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[0.0410709744446821]</t>
+          <t>[0.054681514141314475]</t>
         </is>
       </c>
       <c r="F131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[0.10006532962942913]</t>
+          <t>[0.09459834748675643]</t>
         </is>
       </c>
       <c r="F132" t="b">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[0.0676546351460331]</t>
+          <t>[0.0737919927268854]</t>
         </is>
       </c>
       <c r="F133" t="b">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[0.041952898571352884]</t>
+          <t>[0.045749507441926913]</t>
         </is>
       </c>
       <c r="F134" t="b">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[0.02518400099012206]</t>
+          <t>[0.026985760847446933]</t>
         </is>
       </c>
       <c r="F135" t="b">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[0.028291829973848263]</t>
+          <t>[0.0382802926939975]</t>
         </is>
       </c>
       <c r="F136" t="b">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[0.055435620345170175]</t>
+          <t>[0.06591503356454108]</t>
         </is>
       </c>
       <c r="F137" t="b">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[0.03663643695376708]</t>
+          <t>[0.04068226786345877]</t>
         </is>
       </c>
       <c r="F138" t="b">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[0.03707469536463219]</t>
+          <t>[0.06968611077394982]</t>
         </is>
       </c>
       <c r="F139" t="b">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[0.041053584668235]</t>
+          <t>[0.04514495857328522]</t>
         </is>
       </c>
       <c r="F140" t="b">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4795,14 +4795,14 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[0.04882982812571805]</t>
+          <t>[0.08210086365555712]</t>
         </is>
       </c>
       <c r="F141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
